--- a/biology/Histoire de la zoologie et de la botanique/Shu-qiang_Li/Shu-qiang_Li.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Shu-qiang_Li/Shu-qiang_Li.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shu-qiang Li, en chinois 李枢强, est un arachnologiste chinois.
 Il est professeur à l'Institut de Zoologie de l'Académie chinoise des sciences.
@@ -512,7 +524,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bifurcia Saaristo, Tu &amp; Li, 2006
@@ -572,7 +586,9 @@
           <t>Publications majeures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Peng X.-J., Li S.-Q. &amp; Rollard C. (2003), A review of the Chinese jumping spiders studied by Dr E. Schenkel (Araneae : Salticidae). Rev. Suisse zool. 110 (1) : 91-109 ;
 Li est l’abréviation habituelle de Shu-qiang Li en zoologie.
